--- a/Mark_Sheet.xlsx
+++ b/Mark_Sheet.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40014710\Desktop\Python_OOP_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devansh mathur\Desktop\TestGit-master\TestGit-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33685F28-CF6E-45A7-82EC-A90CE96A7DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30ACAFE6-5CCC-4583-BA8F-47FD7E7E36CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applied_SDLC" sheetId="1" r:id="rId1"/>
-    <sheet name="Adv_Python" sheetId="2" r:id="rId2"/>
-    <sheet name="MBSE" sheetId="3" r:id="rId3"/>
+    <sheet name="Average" sheetId="4" r:id="rId2"/>
+    <sheet name="Adv_Python" sheetId="2" r:id="rId3"/>
+    <sheet name="MBSE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
   <si>
     <t>Sl#</t>
   </si>
@@ -137,6 +130,18 @@
   </si>
   <si>
     <t>Marks</t>
+  </si>
+  <si>
+    <t>SDLC_Marks</t>
+  </si>
+  <si>
+    <t>Pytho_Marks</t>
+  </si>
+  <si>
+    <t>MBSE_Marks</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -196,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,11 +224,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,6 +255,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,18 +538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -560,7 +579,7 @@
         <v>56.400000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -574,7 +593,7 @@
         <v>59.600000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -588,7 +607,7 @@
         <v>69.800000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -602,7 +621,7 @@
         <v>50.600000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -616,7 +635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -630,7 +649,7 @@
         <v>65.199999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -644,7 +663,7 @@
         <v>59.800000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -658,7 +677,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -672,7 +691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -686,7 +705,7 @@
         <v>51.800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -700,7 +719,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -714,7 +733,7 @@
         <v>52.800000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -728,7 +747,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -742,7 +761,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -756,7 +775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -770,7 +789,7 @@
         <v>67.800000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -784,7 +803,7 @@
         <v>63.800000000000011</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -798,7 +817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -812,7 +831,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -826,7 +845,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -840,7 +859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -854,7 +873,7 @@
         <v>67.600000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -868,7 +887,7 @@
         <v>52.800000000000011</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -882,7 +901,7 @@
         <v>55.199999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -896,7 +915,7 @@
         <v>61.000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -910,7 +929,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -924,7 +943,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -938,7 +957,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -952,7 +971,7 @@
         <v>58.600000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -973,22 +992,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F97034-3264-4707-94CE-0A7A026C2D4B}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB889D6C-3813-412D-8837-76646A4D5BA7}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -999,10 +1020,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1013,10 +1043,20 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
+        <v>56.400000000000006</v>
+      </c>
+      <c r="E2" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="6">
+        <v>69.689393939393938</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(D2,E2,F2)</f>
+        <v>63.363131313131312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1027,10 +1067,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="6">
+        <v>59.600000000000009</v>
+      </c>
+      <c r="E3" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="6">
+        <v>65.348484848484844</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="0">AVERAGE(D3,E3,F3)</f>
+        <v>63.649494949494944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1041,10 +1091,20 @@
         <v>5</v>
       </c>
       <c r="D4" s="6">
+        <v>69.800000000000011</v>
+      </c>
+      <c r="E4" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>67.439393939393938</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>68.413131313131316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1055,10 +1115,20 @@
         <v>6</v>
       </c>
       <c r="D5" s="6">
+        <v>50.600000000000009</v>
+      </c>
+      <c r="E5" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>57.628787878787882</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>57.409595959595968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1069,10 +1139,20 @@
         <v>7</v>
       </c>
       <c r="D6" s="6">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>64.787878787878782</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>60.595959595959592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1083,10 +1163,20 @@
         <v>8</v>
       </c>
       <c r="D7" s="6">
+        <v>65.199999999999989</v>
+      </c>
+      <c r="E7" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="6">
+        <v>67.386363636363626</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>66.86212121212121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1097,10 +1187,20 @@
         <v>9</v>
       </c>
       <c r="D8" s="6">
+        <v>59.800000000000004</v>
+      </c>
+      <c r="E8" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="6">
+        <v>66.946969696969703</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>63.915656565656569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1111,10 +1211,20 @@
         <v>10</v>
       </c>
       <c r="D9" s="6">
+        <v>61.2</v>
+      </c>
+      <c r="E9" s="6">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>64.469696969696969</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>64.889898989898981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1125,10 +1235,20 @@
         <v>11</v>
       </c>
       <c r="D10" s="6">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="6">
+        <v>71.439393939393938</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>68.479797979797979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1139,10 +1259,20 @@
         <v>12</v>
       </c>
       <c r="D11" s="6">
+        <v>51.800000000000004</v>
+      </c>
+      <c r="E11" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="6">
+        <v>54.128787878787882</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>57.30959595959596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1153,10 +1283,20 @@
         <v>13</v>
       </c>
       <c r="D12" s="6">
+        <v>54.6</v>
+      </c>
+      <c r="E12" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="6">
+        <v>67.25</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>61.616666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1167,10 +1307,20 @@
         <v>14</v>
       </c>
       <c r="D13" s="6">
+        <v>52.800000000000004</v>
+      </c>
+      <c r="E13" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="6">
+        <v>54.310606060606062</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>58.370202020202022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1181,10 +1331,20 @@
         <v>15</v>
       </c>
       <c r="D14" s="6">
+        <v>67.8</v>
+      </c>
+      <c r="E14" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="6">
+        <v>67.689393939393938</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>67.496464646464645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1195,10 +1355,20 @@
         <v>16</v>
       </c>
       <c r="D15" s="6">
+        <v>63.4</v>
+      </c>
+      <c r="E15" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="6">
+        <v>67.439393939393938</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>64.946464646464648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1209,10 +1379,20 @@
         <v>17</v>
       </c>
       <c r="D16" s="6">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="6">
+        <v>71.530303030303031</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>65.843434343434339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1223,10 +1403,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="6">
+        <v>67.800000000000011</v>
+      </c>
+      <c r="E17" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="6">
+        <v>61.272727272727273</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>65.357575757575759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1237,10 +1427,20 @@
         <v>19</v>
       </c>
       <c r="D18" s="6">
+        <v>63.800000000000011</v>
+      </c>
+      <c r="E18" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="6">
+        <v>63.924242424242429</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>60.574747474747483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1251,10 +1451,20 @@
         <v>20</v>
       </c>
       <c r="D19" s="6">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="6">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>60.333333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1265,10 +1475,20 @@
         <v>21</v>
       </c>
       <c r="D20" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="E20" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="6">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>58.533333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1279,10 +1499,20 @@
         <v>22</v>
       </c>
       <c r="D21" s="6">
+        <v>65.2</v>
+      </c>
+      <c r="E21" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="6">
+        <v>57.515151515151516</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>62.571717171717161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1293,10 +1523,20 @@
         <v>23</v>
       </c>
       <c r="D22" s="6">
+        <v>61</v>
+      </c>
+      <c r="E22" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="6">
+        <v>54.621212121212118</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>60.873737373737377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1307,10 +1547,20 @@
         <v>24</v>
       </c>
       <c r="D23" s="6">
+        <v>67.600000000000009</v>
+      </c>
+      <c r="E23" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="6">
+        <v>64.113636363636374</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>66.237878787878799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1321,10 +1571,20 @@
         <v>25</v>
       </c>
       <c r="D24" s="6">
+        <v>52.800000000000011</v>
+      </c>
+      <c r="E24" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="6">
+        <v>64.439393939393938</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>62.413131313131316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1335,10 +1595,20 @@
         <v>26</v>
       </c>
       <c r="D25" s="6">
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E25" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="6">
+        <v>67.113636363636374</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>63.104545454545452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1349,10 +1619,20 @@
         <v>27</v>
       </c>
       <c r="D26" s="6">
+        <v>61.000000000000007</v>
+      </c>
+      <c r="E26" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="6">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1363,10 +1643,20 @@
         <v>28</v>
       </c>
       <c r="D27" s="6">
+        <v>61.6</v>
+      </c>
+      <c r="E27" s="6">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="6">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>64.86666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1377,10 +1667,20 @@
         <v>29</v>
       </c>
       <c r="D28" s="6">
+        <v>57.2</v>
+      </c>
+      <c r="E28" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="6">
+        <v>62.446969696969703</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>62.215656565656566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1391,10 +1691,20 @@
         <v>30</v>
       </c>
       <c r="D29" s="6">
+        <v>61.2</v>
+      </c>
+      <c r="E29" s="6">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="6">
+        <v>61.318181818181813</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>63.839393939393936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1405,10 +1715,20 @@
         <v>31</v>
       </c>
       <c r="D30" s="6">
+        <v>58.600000000000009</v>
+      </c>
+      <c r="E30" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="6">
+        <v>61</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>61.533333333333339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1419,7 +1739,17 @@
         <v>32</v>
       </c>
       <c r="D31" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="E31" s="6">
         <v>66</v>
+      </c>
+      <c r="F31" s="6">
+        <v>62.871212121212118</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>61.823737373737373</v>
       </c>
     </row>
   </sheetData>
@@ -1428,22 +1758,477 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F97034-3264-4707-94CE-0A7A026C2D4B}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>99003174</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>99003175</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>99003177</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>99003178</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>99003179</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>99003180</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>99003181</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>99003182</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>99003183</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>99003184</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>99003185</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>99003186</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>99003187</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>99003188</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>99003189</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>99003190</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>99003191</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>99003192</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>99003193</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>99003194</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>99003195</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>99003196</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>99003197</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>99003198</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>99003199</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>99003200</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>99003201</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>99003202</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>99003203</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>99003204</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34638D2-C9A1-4488-B268-E251E960DDA0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +2242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1471,7 +2256,7 @@
         <v>69.689393939393938</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1485,7 +2270,7 @@
         <v>65.348484848484844</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1499,7 +2284,7 @@
         <v>67.439393939393938</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1513,7 +2298,7 @@
         <v>57.628787878787882</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1527,7 +2312,7 @@
         <v>64.787878787878782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1541,7 +2326,7 @@
         <v>67.386363636363626</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1555,7 +2340,7 @@
         <v>66.946969696969703</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1569,7 +2354,7 @@
         <v>64.469696969696969</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1583,7 +2368,7 @@
         <v>71.439393939393938</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1597,7 +2382,7 @@
         <v>54.128787878787882</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1611,7 +2396,7 @@
         <v>67.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1625,7 +2410,7 @@
         <v>54.310606060606062</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1639,7 +2424,7 @@
         <v>67.689393939393938</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1653,7 +2438,7 @@
         <v>67.439393939393938</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1667,7 +2452,7 @@
         <v>71.530303030303031</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1681,7 +2466,7 @@
         <v>61.272727272727273</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1695,7 +2480,7 @@
         <v>63.924242424242429</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1709,7 +2494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1723,7 +2508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1737,7 +2522,7 @@
         <v>57.515151515151516</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1751,7 +2536,7 @@
         <v>54.621212121212118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1765,7 +2550,7 @@
         <v>64.113636363636374</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1779,7 +2564,7 @@
         <v>64.439393939393938</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1793,7 +2578,7 @@
         <v>67.113636363636374</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1807,7 +2592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1821,7 +2606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1835,7 +2620,7 @@
         <v>62.446969696969703</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1849,7 +2634,7 @@
         <v>61.318181818181813</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1863,7 +2648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
